--- a/events/example/DummyEvent.xlsx
+++ b/events/example/DummyEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spark\Desktop\O-Book\events\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF834EB8-42F7-4DE7-929A-44ACAA62C7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30410C4-A201-4FE9-A366-C6B0F4B0D274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ_ME_FIRST" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId7"/>
-    <pivotCache cacheId="18" r:id="rId8"/>
-    <pivotCache cacheId="21" r:id="rId9"/>
+    <pivotCache cacheId="5" r:id="rId7"/>
+    <pivotCache cacheId="7" r:id="rId8"/>
+    <pivotCache cacheId="10" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -843,13 +843,95 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44404.46326099537" createdVersion="6" refreshedVersion="7" recordCount="97" xr:uid="{00000000-000A-0000-FFFF-FFFF1E000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44405.947350000002" createdVersion="6" refreshedVersion="7" recordCount="91" xr:uid="{00000000-000A-0000-FFFF-FFFF1B000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H92" sheet="StartList"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Start Time" numFmtId="20">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T17:00:00" maxDate="1899-12-30T18:30:00"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Course" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Fee Class" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Entry Fee" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="SI" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="33326" maxValue="8190848" count="3">
+        <m/>
+        <n v="8190848" u="1"/>
+        <n v="33326" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Phone number" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Email Address" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44405.947350115741" createdVersion="6" refreshedVersion="7" recordCount="105" xr:uid="{00000000-000A-0000-FFFF-FFFF20000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H106" sheet="StartList"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Start Time" numFmtId="20">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T17:00:00" maxDate="1899-12-30T18:30:00"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Course" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Fee Class" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Entry Fee" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="SI" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Phone number" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Email Address" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44405.947350347225" createdVersion="6" refreshedVersion="7" recordCount="97" xr:uid="{00000000-000A-0000-FFFF-FFFF1E000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H98" sheet="StartList"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Start Time" numFmtId="20">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T17:00:00" maxDate="1899-12-30T18:30:00"/>
     </cacheField>
     <cacheField name="Name" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -895,1057 +977,915 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44404.463261226854" createdVersion="6" refreshedVersion="7" recordCount="105" xr:uid="{00000000-000A-0000-FFFF-FFFF20000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H106" sheet="StartList"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="Start Time" numFmtId="20">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Name" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Course" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Fee Class" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Entry Fee" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="SI" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Phone number" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Email Address" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44404.463261574077" createdVersion="6" refreshedVersion="7" recordCount="91" xr:uid="{00000000-000A-0000-FFFF-FFFF1B000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H92" sheet="StartList"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="Start Time" numFmtId="20">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Name" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Course" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Fee Class" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Entry Fee" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="SI" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="33326" maxValue="8190848" count="3">
-        <m/>
-        <n v="8190848" u="1"/>
-        <n v="33326" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Phone number" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Email Address" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="97">
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="91">
+  <r>
+    <d v="1899-12-30T17:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:02:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:04:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:06:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:08:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:10:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:12:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:14:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:16:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:18:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:20:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:22:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:24:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:26:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:28:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:30:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:32:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:34:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:36:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:38:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:40:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:42:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:44:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:46:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:48:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:50:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:52:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:54:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:56:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:58:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:02:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:04:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:06:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:08:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:10:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:12:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:14:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:16:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:18:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:20:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:22:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:24:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:26:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:28:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:30:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1955,457 +1895,457 @@
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="105">
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
+    <d v="1899-12-30T17:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:02:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:04:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:06:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:08:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:10:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:12:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:14:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:16:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:18:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:20:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:22:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:24:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:26:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:28:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:30:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:32:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:34:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:36:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:38:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:40:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:42:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:44:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:46:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:48:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:50:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:52:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:54:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:56:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:58:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:00:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:02:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:04:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:06:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:08:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:10:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:12:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:14:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:16:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:18:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:20:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:22:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:24:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:26:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:28:00"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:30:00"/>
     <m/>
     <m/>
     <m/>
@@ -3008,914 +2948,974 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="91">
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="97">
+  <r>
+    <d v="1899-12-30T17:00:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:02:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:04:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:06:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:08:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:10:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:12:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:14:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:16:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:18:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:20:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:22:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:24:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:26:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:28:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:30:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:32:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:34:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:36:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:38:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:40:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:42:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:44:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:46:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:48:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:50:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:52:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:54:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:56:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T17:58:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:00:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:02:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:04:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:06:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:08:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:10:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:12:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:14:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:16:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:18:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:20:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:22:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:24:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:26:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:28:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="1899-12-30T18:30:00"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -3923,7 +3923,48 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000001000000}" name="PivotTable2" cacheId="18" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000002000000}" name="PivotTable3" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="G6:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField axis="axisPage" dataField="1" compact="0" showAll="0" includeNewItemsInFilter="1">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="0"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count - SI" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000001000000}" name="PivotTable2" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="E4:F5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -3953,8 +3994,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable1" cacheId="16" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable1" cacheId="10" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="B4:C7" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -4009,8 +4050,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000003000000}" name="PivotTable4" cacheId="18" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000003000000}" name="PivotTable4" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="E10:F11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -4030,47 +4071,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count - Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000002000000}" name="PivotTable3" cacheId="21" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="G6:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisPage" dataField="1" compact="0" showAll="0" includeNewItemsInFilter="1">
-      <items count="4">
-        <item x="0"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" hier="0"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count - SI" fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4468,7 +4468,7 @@
   </sheetPr>
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -4505,8 +4505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -4547,7 +4547,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="9">
-        <v>44227</v>
+        <v>44592</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>7</v>
@@ -4580,7 +4580,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="10">
-        <v>44224.708333333336</v>
+        <v>44589.708333333336</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
@@ -4642,7 +4642,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="10">
-        <v>44226.708333333336</v>
+        <v>44591.708333333336</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>12</v>
@@ -5227,7 +5227,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -5419,7 +5419,7 @@
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/events/example/DummyEvent.xlsx
+++ b/events/example/DummyEvent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spark\Desktop\O-Book\events\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30410C4-A201-4FE9-A366-C6B0F4B0D274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C91376-0753-4009-8548-A589A8F73399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7665" yWindow="1110" windowWidth="17085" windowHeight="9615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ_ME_FIRST" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId7"/>
-    <pivotCache cacheId="7" r:id="rId8"/>
-    <pivotCache cacheId="10" r:id="rId9"/>
+    <pivotCache cacheId="16" r:id="rId7"/>
+    <pivotCache cacheId="18" r:id="rId8"/>
+    <pivotCache cacheId="21" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="135">
   <si>
     <t>Edit the Event Details, available Courses, Entry Fees and Start Times on the relevant sheets.</t>
   </si>
@@ -439,6 +439,12 @@
   </si>
   <si>
     <t>Incredibly Long Course, Very Challenging</t>
+  </si>
+  <si>
+    <t>Student Discount</t>
+  </si>
+  <si>
+    <t>Value in £s deducted from student entries. Only deducted from over 18s.</t>
   </si>
 </sst>
 </file>
@@ -843,7 +849,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44405.947350000002" createdVersion="6" refreshedVersion="7" recordCount="91" xr:uid="{00000000-000A-0000-FFFF-FFFF1B000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44419.556321064818" createdVersion="6" refreshedVersion="7" recordCount="91" xr:uid="{00000000-000A-0000-FFFF-FFFF1B000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H92" sheet="StartList"/>
   </cacheSource>
@@ -886,7 +892,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44405.947350115741" createdVersion="6" refreshedVersion="7" recordCount="105" xr:uid="{00000000-000A-0000-FFFF-FFFF20000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44419.556321296295" createdVersion="6" refreshedVersion="7" recordCount="105" xr:uid="{00000000-000A-0000-FFFF-FFFF20000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H106" sheet="StartList"/>
   </cacheSource>
@@ -925,7 +931,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44405.947350347225" createdVersion="6" refreshedVersion="7" recordCount="97" xr:uid="{00000000-000A-0000-FFFF-FFFF1E000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="sparky hotdog" refreshedDate="44419.556321643518" createdVersion="6" refreshedVersion="7" recordCount="97" xr:uid="{00000000-000A-0000-FFFF-FFFF1E000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H98" sheet="StartList"/>
   </cacheSource>
@@ -3923,7 +3929,38 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000002000000}" name="PivotTable3" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000003000000}" name="PivotTable4" cacheId="18" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="E10:F11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count - Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000002000000}" name="PivotTable3" cacheId="16" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="G6:H7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -3963,8 +4000,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000001000000}" name="PivotTable2" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000001000000}" name="PivotTable2" cacheId="18" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="E4:F5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -3994,8 +4031,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable1" cacheId="10" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable1" cacheId="21" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="B4:C7" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -4040,37 +4077,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count - Course" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000003000000}" name="PivotTable4" cacheId="7" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="E10:F11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" showAll="0" includeNewItemsInFilter="1"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count - Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4503,10 +4509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -4659,6 +4665,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="39">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{CAD6EDB8-DDAE-4538-A12A-94AC65B0531A}"/>
@@ -4673,7 +4690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -7245,7 +7262,7 @@
     <col min="2" max="2" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" style="36" bestFit="1" customWidth="1"/>
